--- a/biology/Médecine/Muscle_transverse_du_périnée/Muscle_transverse_du_périnée.xlsx
+++ b/biology/Médecine/Muscle_transverse_du_périnée/Muscle_transverse_du_périnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+          <t>Muscle_transverse_du_périnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles tranverses du périnée se composent de deux muscles :
 le muscle transverse superficiel du périnée.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+          <t>Muscle_transverse_du_périnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,21 +525,11 @@
           <t>Muscle transverse superficiel du périnée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle transverse superficiel du périnée ( transversus superficialis perinei ) est un muscle inconstant, mince, pair et symétrique de l'espace superficiel du périnée.
-Origine
-Par des fibres tendineuses de l'intérieur de la branche ischio-pubienne et de la tubérosité ischiatique.
-Trajet
-Il rejoint le muscle opposé en passant devant le sphincter anal et derrière le muscle bulbo-spongieux.
-Dans certain cas ses fibres de la couche profonde s’entremêlent avec celles du sphincter anal et/ou du muscle bulbo-spongieux.
-Dans certains cas, il peut être absent, double ou s'insérer dans le muscle bulbo-spongieux ou le sphincter externe.
-Terminaison
-Il se termine sur le raphé anobulbaire.
-Innervation
-Il est innervé par le nerf pudendal.
-Action
-Il assure la tension du raphé ano-bulbaire et joue un rôle d'auxiliaire du muscle bulbo-spongieux.
 </t>
         </is>
       </c>
@@ -538,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+          <t>Muscle_transverse_du_périnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,23 +555,352 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Muscle transverse superficiel du périnée</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par des fibres tendineuses de l'intérieur de la branche ischio-pubienne et de la tubérosité ischiatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Muscle transverse superficiel du périnée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rejoint le muscle opposé en passant devant le sphincter anal et derrière le muscle bulbo-spongieux.
+Dans certain cas ses fibres de la couche profonde s’entremêlent avec celles du sphincter anal et/ou du muscle bulbo-spongieux.
+Dans certains cas, il peut être absent, double ou s'insérer dans le muscle bulbo-spongieux ou le sphincter externe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Muscle transverse superficiel du périnée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine sur le raphé anobulbaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Muscle transverse superficiel du périnée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le nerf pudendal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Muscle transverse superficiel du périnée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il assure la tension du raphé ano-bulbaire et joue un rôle d'auxiliaire du muscle bulbo-spongieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Muscle transverse profond du périnée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle transverse profond du périnée (transversus perinei profundus) est un muscle du diaphragme urogénital.
 Il est pair, symétrique et de forme triangulaire aplatie.
 Le muscle périnéal transverse profond se situe dans le même plan que le muscle sphincter de l'urètre et auparavant ces deux muscles étaient décrits ensemble.
-Origine
-Il naît de la branche inférieure de l'ischion.
-Trajet et terminaison
-Il se dirige vers le plan médian, où il s'entrelace en un raphé tendineux avec l'autre muscle périnéal transverse profond du côté opposé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Muscle transverse profond du périnée</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît de la branche inférieure de l'ischion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Muscle transverse profond du périnée</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trajet et terminaison</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se dirige vers le plan médian, où il s'entrelace en un raphé tendineux avec l'autre muscle périnéal transverse profond du côté opposé.
 Des fibres antérieures se terminent sur l’urètre membraneux.
-Innervation
-Le muscle transverse profond du périnée est innervé par le nerf pudendal.
-Action
-La fonction du muscle est la fixation du corps périnéal (noyau fibreux central du périnée), le soutien du plancher pelvien, l'expulsion du sperme chez les mâles et les dernières gouttes d'urine chez les deux sexes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Muscle transverse profond du périnée</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle transverse profond du périnée est innervé par le nerf pudendal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Muscle_transverse_du_périnée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_transverse_du_p%C3%A9rin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Muscle transverse profond du périnée</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fonction du muscle est la fixation du corps périnéal (noyau fibreux central du périnée), le soutien du plancher pelvien, l'expulsion du sperme chez les mâles et les dernières gouttes d'urine chez les deux sexes.
 </t>
         </is>
       </c>
